--- a/optimize_processing/SamplingData2.xlsx
+++ b/optimize_processing/SamplingData2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="FrameLength4" sheetId="5" r:id="rId5"/>
     <sheet name="FrameLength5" sheetId="6" r:id="rId6"/>
     <sheet name="DifferentFrameLength" sheetId="7" r:id="rId7"/>
+    <sheet name="HiddenNodes1" sheetId="8" r:id="rId8"/>
+    <sheet name="HiddenNodes2" sheetId="9" r:id="rId9"/>
+    <sheet name="HiddenNodes3" sheetId="10" r:id="rId10"/>
+    <sheet name="seedTest" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -352,6 +356,976 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O11"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>0.97</v>
+      </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>2380</v>
+      </c>
+      <c r="H2">
+        <v>7140</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>1.8374258141780748E-2</v>
+      </c>
+      <c r="K2">
+        <v>0.12545192929931043</v>
+      </c>
+      <c r="L2">
+        <v>6.4931197956281217E-2</v>
+      </c>
+      <c r="M2">
+        <v>38</v>
+      </c>
+      <c r="N2">
+        <v>183.91329541187366</v>
+      </c>
+      <c r="O2">
+        <v>357.90538098751153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>0.97</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>2380</v>
+      </c>
+      <c r="H3">
+        <v>7140</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>2.2607960424558362</v>
+      </c>
+      <c r="K3">
+        <v>2.6379775306552595</v>
+      </c>
+      <c r="L3">
+        <v>2.7163332989414144</v>
+      </c>
+      <c r="M3">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>184.10958816860116</v>
+      </c>
+      <c r="O3">
+        <v>142.11038265980685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>0.97</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>2380</v>
+      </c>
+      <c r="H4">
+        <v>7140</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0.94053176631366764</v>
+      </c>
+      <c r="K4">
+        <v>1.0185588818345011</v>
+      </c>
+      <c r="L4">
+        <v>0.63401740209598945</v>
+      </c>
+      <c r="M4">
+        <v>27</v>
+      </c>
+      <c r="N4">
+        <v>187.35723457896191</v>
+      </c>
+      <c r="O4">
+        <v>263.37191847892365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>0.97</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>2380</v>
+      </c>
+      <c r="H5">
+        <v>7140</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>1.5242344512774213</v>
+      </c>
+      <c r="K5">
+        <v>1.7004438939897475</v>
+      </c>
+      <c r="L5">
+        <v>1.3346310338144127</v>
+      </c>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>185.28028665677377</v>
+      </c>
+      <c r="O5">
+        <v>275.31006226734269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0.97</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>2380</v>
+      </c>
+      <c r="H6">
+        <v>7140</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>9.5600859311663609</v>
+      </c>
+      <c r="K6">
+        <v>9.7683524417692134</v>
+      </c>
+      <c r="L6">
+        <v>9.8242479833726044</v>
+      </c>
+      <c r="M6">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>184.94509679390197</v>
+      </c>
+      <c r="O6">
+        <v>249.28888901634019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>0.97</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>2380</v>
+      </c>
+      <c r="H7">
+        <v>7140</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>2.319973959961672</v>
+      </c>
+      <c r="K7">
+        <v>2.7163332988899858</v>
+      </c>
+      <c r="L7">
+        <v>2.3506730471163348</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <v>185.31986632504351</v>
+      </c>
+      <c r="O7">
+        <v>198.41227663990591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>0.97</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>2380</v>
+      </c>
+      <c r="H8">
+        <v>7140</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>2.4432575991379095</v>
+      </c>
+      <c r="K8">
+        <v>2.2984358682915276</v>
+      </c>
+      <c r="L8">
+        <v>2.193961510641913</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>184.19097884214378</v>
+      </c>
+      <c r="O8">
+        <v>19.986157681148221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>0.97</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>2380</v>
+      </c>
+      <c r="H9">
+        <v>7140</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>1.2701548527203489E-3</v>
+      </c>
+      <c r="K9">
+        <v>0.12700645659864251</v>
+      </c>
+      <c r="L9">
+        <v>0.10710975730659134</v>
+      </c>
+      <c r="M9">
+        <v>53</v>
+      </c>
+      <c r="N9">
+        <v>184.58929423100375</v>
+      </c>
+      <c r="O9">
+        <v>503.86538143426191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>0.97</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>2380</v>
+      </c>
+      <c r="H10">
+        <v>7140</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>1.2929207337272356E-2</v>
+      </c>
+      <c r="K10">
+        <v>0.16804424868919052</v>
+      </c>
+      <c r="L10">
+        <v>0.10272582800405085</v>
+      </c>
+      <c r="M10">
+        <v>60</v>
+      </c>
+      <c r="N10">
+        <v>184.06889766156365</v>
+      </c>
+      <c r="O10">
+        <v>560.99482916627926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>0.97</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>2380</v>
+      </c>
+      <c r="H11">
+        <v>7140</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>1.5466761552534265</v>
+      </c>
+      <c r="K11">
+        <v>1.5572665803689556</v>
+      </c>
+      <c r="L11">
+        <v>1.4539871565231772</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11">
+        <v>185.66233489856955</v>
+      </c>
+      <c r="O11">
+        <v>193.95990113534967</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>0.97</v>
+      </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>2380</v>
+      </c>
+      <c r="H2">
+        <v>595</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>5.26218810780665E-3</v>
+      </c>
+      <c r="K2">
+        <v>4.3494703311653074E-2</v>
+      </c>
+      <c r="L2">
+        <v>4.7963488510255788E-2</v>
+      </c>
+      <c r="M2">
+        <v>27</v>
+      </c>
+      <c r="N2">
+        <v>186.03766950856252</v>
+      </c>
+      <c r="O2">
+        <v>23.817511829829161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>0.97</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>2380</v>
+      </c>
+      <c r="H3">
+        <v>595</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>5.26218810780665E-3</v>
+      </c>
+      <c r="K3">
+        <v>4.3494703311653074E-2</v>
+      </c>
+      <c r="L3">
+        <v>4.7963488510255788E-2</v>
+      </c>
+      <c r="M3">
+        <v>27</v>
+      </c>
+      <c r="N3">
+        <v>187.48674871981868</v>
+      </c>
+      <c r="O3">
+        <v>23.97135635828414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>0.97</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>2380</v>
+      </c>
+      <c r="H4">
+        <v>595</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>5.26218810780665E-3</v>
+      </c>
+      <c r="K4">
+        <v>4.3494703311653074E-2</v>
+      </c>
+      <c r="L4">
+        <v>4.7963488510255788E-2</v>
+      </c>
+      <c r="M4">
+        <v>27</v>
+      </c>
+      <c r="N4">
+        <v>187.02260104104911</v>
+      </c>
+      <c r="O4">
+        <v>23.977646784665112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>0.97</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>2380</v>
+      </c>
+      <c r="H5">
+        <v>595</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>5.26218810780665E-3</v>
+      </c>
+      <c r="K5">
+        <v>4.3494703311653074E-2</v>
+      </c>
+      <c r="L5">
+        <v>4.7963488510255788E-2</v>
+      </c>
+      <c r="M5">
+        <v>27</v>
+      </c>
+      <c r="N5">
+        <v>186.74452760977684</v>
+      </c>
+      <c r="O5">
+        <v>23.394998569191369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0.97</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>2380</v>
+      </c>
+      <c r="H6">
+        <v>595</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>5.26218810780665E-3</v>
+      </c>
+      <c r="K6">
+        <v>4.3494703311653074E-2</v>
+      </c>
+      <c r="L6">
+        <v>4.7963488510255788E-2</v>
+      </c>
+      <c r="M6">
+        <v>27</v>
+      </c>
+      <c r="N6">
+        <v>186.67161251528913</v>
+      </c>
+      <c r="O6">
+        <v>23.790505166003985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>0.97</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>2380</v>
+      </c>
+      <c r="H7">
+        <v>595</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>5.26218810780665E-3</v>
+      </c>
+      <c r="K7">
+        <v>4.3494703311653074E-2</v>
+      </c>
+      <c r="L7">
+        <v>4.7963488510255788E-2</v>
+      </c>
+      <c r="M7">
+        <v>27</v>
+      </c>
+      <c r="N7">
+        <v>187.31925174142089</v>
+      </c>
+      <c r="O7">
+        <v>23.935408951670063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>0.97</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>2380</v>
+      </c>
+      <c r="H8">
+        <v>595</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>5.26218810780665E-3</v>
+      </c>
+      <c r="K8">
+        <v>4.3494703311653074E-2</v>
+      </c>
+      <c r="L8">
+        <v>4.7963488510255788E-2</v>
+      </c>
+      <c r="M8">
+        <v>27</v>
+      </c>
+      <c r="N8">
+        <v>185.50875811848061</v>
+      </c>
+      <c r="O8">
+        <v>23.444812443326093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>0.97</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>2380</v>
+      </c>
+      <c r="H9">
+        <v>595</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>5.26218810780665E-3</v>
+      </c>
+      <c r="K9">
+        <v>4.3494703311653074E-2</v>
+      </c>
+      <c r="L9">
+        <v>4.7963488510255788E-2</v>
+      </c>
+      <c r="M9">
+        <v>27</v>
+      </c>
+      <c r="N9">
+        <v>184.23061948580241</v>
+      </c>
+      <c r="O9">
+        <v>23.469106607921006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>0.97</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>2380</v>
+      </c>
+      <c r="H10">
+        <v>595</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>5.26218810780665E-3</v>
+      </c>
+      <c r="K10">
+        <v>4.3494703311653074E-2</v>
+      </c>
+      <c r="L10">
+        <v>4.7963488510255788E-2</v>
+      </c>
+      <c r="M10">
+        <v>27</v>
+      </c>
+      <c r="N10">
+        <v>185.24639098143814</v>
+      </c>
+      <c r="O10">
+        <v>23.716644349271856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>0.97</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>2380</v>
+      </c>
+      <c r="H11">
+        <v>595</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>5.26218810780665E-3</v>
+      </c>
+      <c r="K11">
+        <v>4.3494703311653074E-2</v>
+      </c>
+      <c r="L11">
+        <v>4.7963488510255788E-2</v>
+      </c>
+      <c r="M11">
+        <v>27</v>
+      </c>
+      <c r="N11">
+        <v>186.75015243847221</v>
+      </c>
+      <c r="O11">
+        <v>24.080402087410938</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O11"/>
@@ -2781,7 +3755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2:O6"/>
     </sheetView>
   </sheetViews>
@@ -3025,4 +3999,974 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O11"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>0.97</v>
+      </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>2380</v>
+      </c>
+      <c r="H2">
+        <v>2380</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>1.366273002893704E-2</v>
+      </c>
+      <c r="K2">
+        <v>6.6692643921291345E-2</v>
+      </c>
+      <c r="L2">
+        <v>9.1631310357917634E-2</v>
+      </c>
+      <c r="M2">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <v>184.58363831089721</v>
+      </c>
+      <c r="O2">
+        <v>80.978181979538832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>0.97</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>2380</v>
+      </c>
+      <c r="H3">
+        <v>2380</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>2.3535967698117477</v>
+      </c>
+      <c r="K3">
+        <v>2.2984358682915276</v>
+      </c>
+      <c r="L3">
+        <v>2.6118589412403712</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>186.50986080707267</v>
+      </c>
+      <c r="O3">
+        <v>7.4212810748089542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>0.97</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>2380</v>
+      </c>
+      <c r="H4">
+        <v>2380</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>6.0381297015602037E-3</v>
+      </c>
+      <c r="K4">
+        <v>9.4607030934551223E-2</v>
+      </c>
+      <c r="L4">
+        <v>8.0453584065583686E-2</v>
+      </c>
+      <c r="M4">
+        <v>47</v>
+      </c>
+      <c r="N4">
+        <v>182.73279799759237</v>
+      </c>
+      <c r="O4">
+        <v>152.23264465354509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>0.97</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>2380</v>
+      </c>
+      <c r="H5">
+        <v>2380</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>1.3338350313405207E-7</v>
+      </c>
+      <c r="K5">
+        <v>5.5867372113554685E-2</v>
+      </c>
+      <c r="L5">
+        <v>3.7877324012182981E-2</v>
+      </c>
+      <c r="M5">
+        <v>84</v>
+      </c>
+      <c r="N5">
+        <v>183.11340154527332</v>
+      </c>
+      <c r="O5">
+        <v>261.74544133503503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0.97</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>2380</v>
+      </c>
+      <c r="H6">
+        <v>2380</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>3.6238843896093141E-4</v>
+      </c>
+      <c r="K6">
+        <v>7.6817691142946495E-2</v>
+      </c>
+      <c r="L6">
+        <v>3.9043249517902792E-2</v>
+      </c>
+      <c r="M6">
+        <v>46</v>
+      </c>
+      <c r="N6">
+        <v>183.15789969367412</v>
+      </c>
+      <c r="O6">
+        <v>149.29928924430362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>0.97</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>2380</v>
+      </c>
+      <c r="H7">
+        <v>2380</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>5.8841550973502318E-5</v>
+      </c>
+      <c r="K7">
+        <v>3.8901992545799353E-2</v>
+      </c>
+      <c r="L7">
+        <v>0.10028153063632129</v>
+      </c>
+      <c r="M7">
+        <v>55</v>
+      </c>
+      <c r="N7">
+        <v>186.83642355799242</v>
+      </c>
+      <c r="O7">
+        <v>171.25738919081434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>0.97</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>2380</v>
+      </c>
+      <c r="H8">
+        <v>2380</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>2.1574312175245284E-3</v>
+      </c>
+      <c r="K8">
+        <v>7.7896999840753767E-2</v>
+      </c>
+      <c r="L8">
+        <v>8.716858775528584E-2</v>
+      </c>
+      <c r="M8">
+        <v>52</v>
+      </c>
+      <c r="N8">
+        <v>183.17131488294535</v>
+      </c>
+      <c r="O8">
+        <v>165.94508139912557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>0.97</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>2380</v>
+      </c>
+      <c r="H9">
+        <v>2380</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>6.6971618032837703E-3</v>
+      </c>
+      <c r="K9">
+        <v>7.6798603473640287E-2</v>
+      </c>
+      <c r="L9">
+        <v>0.11560536447582104</v>
+      </c>
+      <c r="M9">
+        <v>25</v>
+      </c>
+      <c r="N9">
+        <v>183.05129780983648</v>
+      </c>
+      <c r="O9">
+        <v>79.850808618176941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>0.97</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>2380</v>
+      </c>
+      <c r="H10">
+        <v>2380</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>6.8239072186986093E-3</v>
+      </c>
+      <c r="K10">
+        <v>6.9542121096911338E-2</v>
+      </c>
+      <c r="L10">
+        <v>9.5235295835321726E-2</v>
+      </c>
+      <c r="M10">
+        <v>29</v>
+      </c>
+      <c r="N10">
+        <v>183.64838934415837</v>
+      </c>
+      <c r="O10">
+        <v>93.744397206964962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>0.97</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>2380</v>
+      </c>
+      <c r="H11">
+        <v>2380</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>1.7598650017005269E-2</v>
+      </c>
+      <c r="K11">
+        <v>9.0153938570145489E-2</v>
+      </c>
+      <c r="L11">
+        <v>8.992773703606223E-2</v>
+      </c>
+      <c r="M11">
+        <v>31</v>
+      </c>
+      <c r="N11">
+        <v>183.18809488736457</v>
+      </c>
+      <c r="O11">
+        <v>98.933058078756048</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O11"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>0.97</v>
+      </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>2380</v>
+      </c>
+      <c r="H2">
+        <v>4760</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>1.494105991154586</v>
+      </c>
+      <c r="K2">
+        <v>1.6079086881951579</v>
+      </c>
+      <c r="L2">
+        <v>1.4692837763289257</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <v>183.163463848839</v>
+      </c>
+      <c r="O2">
+        <v>188.15540634361383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>0.97</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>2380</v>
+      </c>
+      <c r="H3">
+        <v>4760</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>1.1553790370436913E-2</v>
+      </c>
+      <c r="K3">
+        <v>4.5851181501723855E-2</v>
+      </c>
+      <c r="L3">
+        <v>7.0549565577578674E-2</v>
+      </c>
+      <c r="M3">
+        <v>58</v>
+      </c>
+      <c r="N3">
+        <v>183.20903178327052</v>
+      </c>
+      <c r="O3">
+        <v>362.63523858281121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>0.97</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>2380</v>
+      </c>
+      <c r="H4">
+        <v>4760</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>1.557911524635182</v>
+      </c>
+      <c r="K4">
+        <v>1.2786146758028847</v>
+      </c>
+      <c r="L4">
+        <v>1.7164601488959106</v>
+      </c>
+      <c r="M4">
+        <v>23</v>
+      </c>
+      <c r="N4">
+        <v>178.4815984124665</v>
+      </c>
+      <c r="O4">
+        <v>141.4959143470864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>0.97</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>2380</v>
+      </c>
+      <c r="H5">
+        <v>4760</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>2.5910892012149743E-5</v>
+      </c>
+      <c r="K5">
+        <v>8.6742557013077801E-2</v>
+      </c>
+      <c r="L5">
+        <v>8.9619254131656084E-2</v>
+      </c>
+      <c r="M5">
+        <v>59</v>
+      </c>
+      <c r="N5">
+        <v>183.43958999182567</v>
+      </c>
+      <c r="O5">
+        <v>368.57329362487218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0.97</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>2380</v>
+      </c>
+      <c r="H6">
+        <v>4760</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>7.1254967700253692E-3</v>
+      </c>
+      <c r="K6">
+        <v>0.15566846682902866</v>
+      </c>
+      <c r="L6">
+        <v>0.10688283358235008</v>
+      </c>
+      <c r="M6">
+        <v>34</v>
+      </c>
+      <c r="N6">
+        <v>183.95215122379417</v>
+      </c>
+      <c r="O6">
+        <v>219.19810601990091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>0.97</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>2380</v>
+      </c>
+      <c r="H7">
+        <v>4760</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>3.4698050066159572E-4</v>
+      </c>
+      <c r="K7">
+        <v>0.11474785814937384</v>
+      </c>
+      <c r="L7">
+        <v>0.13147310382298608</v>
+      </c>
+      <c r="M7">
+        <v>43</v>
+      </c>
+      <c r="N7">
+        <v>183.80279895146481</v>
+      </c>
+      <c r="O7">
+        <v>275.35624116309651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>0.97</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>2380</v>
+      </c>
+      <c r="H8">
+        <v>4760</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>6.2936249549410857E-3</v>
+      </c>
+      <c r="K8">
+        <v>0.10005320612485613</v>
+      </c>
+      <c r="L8">
+        <v>9.7131136773275686E-2</v>
+      </c>
+      <c r="M8">
+        <v>35</v>
+      </c>
+      <c r="N8">
+        <v>183.92748184925676</v>
+      </c>
+      <c r="O8">
+        <v>222.5370494914894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>0.97</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>2380</v>
+      </c>
+      <c r="H9">
+        <v>4760</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0.8742306856938713</v>
+      </c>
+      <c r="K9">
+        <v>0.94822953808358035</v>
+      </c>
+      <c r="L9">
+        <v>0.89419761863723379</v>
+      </c>
+      <c r="M9">
+        <v>48</v>
+      </c>
+      <c r="N9">
+        <v>184.18859748153531</v>
+      </c>
+      <c r="O9">
+        <v>303.55798336881173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>0.97</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>2380</v>
+      </c>
+      <c r="H10">
+        <v>4760</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>1.518741189561118</v>
+      </c>
+      <c r="K10">
+        <v>1.3940462461294012</v>
+      </c>
+      <c r="L10">
+        <v>1.6954966172582038</v>
+      </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>184.08945693266023</v>
+      </c>
+      <c r="O10">
+        <v>129.10761310934637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>0.97</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>2380</v>
+      </c>
+      <c r="H11">
+        <v>4760</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>3.1079761473666217E-3</v>
+      </c>
+      <c r="K11">
+        <v>7.0912598225917278E-2</v>
+      </c>
+      <c r="L11">
+        <v>8.8717882488785732E-2</v>
+      </c>
+      <c r="M11">
+        <v>45</v>
+      </c>
+      <c r="N11">
+        <v>183.82439872833109</v>
+      </c>
+      <c r="O11">
+        <v>282.2467510984626</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>